--- a/data/dasar-matematika-bisnis.xlsx
+++ b/data/dasar-matematika-bisnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakti\Desktop\Bookdown\Matematika-Bisnis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601264FE-55EF-4375-A48E-27CCC118338F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903BE2C0-B416-404A-A4B8-5439847149A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7810" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kasus1" sheetId="3" r:id="rId1"/>
@@ -384,9 +384,6 @@
     <t>Misalnya, kita memiliki sistem persamaan linear berikut ini:</t>
   </si>
   <si>
-    <t>Jika A-1 (kebalikan dari A) ada, kita dapat mengalikan kedua sisi dengan A-1 untuk mendapatkan X = A-1B.  Microsoft Excel, jalankan langkah-langkah berikut.</t>
-  </si>
-  <si>
     <t>Untuk mengatasi sistem persamaan linear dengan Microsoft Excel, jalankan langkah-langkah berikut:</t>
   </si>
   <si>
@@ -469,6 +466,9 @@
   </si>
   <si>
     <t>Selesaikan sistem persamaan linear berikut ini:</t>
+  </si>
+  <si>
+    <t>Jika 𝐴^(−1) (kebalikan dari A) ada, kita dapat mengalikan kedua sisi dengan 𝐴^(−1) untuk mendapatkan X = 𝐴^(−1)*B.  Microsoft Excel, jalankan langkah-langkah berikut.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -686,14 +686,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,6 +710,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2453,18 +2457,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
@@ -2767,11 +2771,11 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2781,11 +2785,11 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2795,11 +2799,11 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2809,11 +2813,11 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2823,11 +2827,11 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2854,7 +2858,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3485,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637AFE64-A3EA-4529-BB59-F65073AFB943}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3529,27 +3533,27 @@
       <c r="F3" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3674,16 +3678,16 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="35" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="16"/>
@@ -3739,13 +3743,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3997,15 +4001,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D1DB5-01EE-4E17-834A-5681BA4446DB}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -4025,17 +4029,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="23">
         <v>2</v>
@@ -4063,14 +4067,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4094,12 +4098,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25:C26">MMULT(_xlfn.ANCHORARRAY(C18),H12:H13)</f>
@@ -4113,12 +4117,12 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30:C31">MMULT(MINVERSE(C12:D13),H12:H13)</f>
@@ -4140,7 +4144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACC7831-D0F8-4E31-863A-7721B0943F47}">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4148,7 +4152,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/dasar-matematika-bisnis.xlsx
+++ b/data/dasar-matematika-bisnis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakti\Desktop\Bookdown\Matematika-Bisnis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903BE2C0-B416-404A-A4B8-5439847149A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECBA044-8ACD-428D-B7B5-D101BC5374E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/dasar-matematika-bisnis.xlsx
+++ b/data/dasar-matematika-bisnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakti\Desktop\Bookdown\Matematika-Bisnis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECBA044-8ACD-428D-B7B5-D101BC5374E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6332FDD-1689-4012-B551-E3D719FC20AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kasus1" sheetId="3" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="116">
   <si>
     <t>No</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>Nilai Terendah</t>
-  </si>
-  <si>
-    <t>Jumlah Item</t>
   </si>
   <si>
     <t>Daftar Karyawan PT. Kopi Dari Hati ~ Cabang Tangerang, September 2020</t>
@@ -686,14 +683,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -707,13 +705,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2444,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C4ECD7-278E-4C6F-940A-07828DD24064}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2458,7 +2455,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2483,18 +2480,18 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>26</v>
@@ -2520,7 +2517,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="10">
         <v>56</v>
@@ -2538,7 +2535,7 @@
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="10">
         <v>45</v>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="10">
         <v>35</v>
@@ -2574,7 +2571,7 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="10">
         <v>48</v>
@@ -2592,7 +2589,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="10">
         <v>38</v>
@@ -2610,7 +2607,7 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="10">
         <v>58</v>
@@ -2628,7 +2625,7 @@
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="10">
         <v>37</v>
@@ -2646,7 +2643,7 @@
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="10">
         <v>38</v>
@@ -2664,7 +2661,7 @@
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="10">
         <v>37</v>
@@ -2682,7 +2679,7 @@
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="10">
         <v>57</v>
@@ -2700,7 +2697,7 @@
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="10">
         <v>40</v>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="10">
         <v>47</v>
@@ -2736,7 +2733,7 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="10">
         <v>37</v>
@@ -2754,7 +2751,7 @@
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="10">
         <v>47</v>
@@ -2771,11 +2768,11 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2785,11 +2782,11 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2799,11 +2796,11 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2813,11 +2810,11 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2826,23 +2823,8 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A24:C24"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
@@ -2872,17 +2854,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="A1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -3109,55 +3091,55 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="2"/>
     </row>
   </sheetData>
@@ -3190,18 +3172,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="14"/>
     </row>
@@ -3210,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="H5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3233,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>24</v>
@@ -3249,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
@@ -3260,10 +3242,10 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3271,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="10">
         <v>35</v>
@@ -3293,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>24</v>
@@ -3315,7 +3297,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>25</v>
@@ -3326,7 +3308,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="13">
         <v>0.5</v>
@@ -3337,10 +3319,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="10">
         <v>58</v>
@@ -3353,7 +3335,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>24</v>
@@ -3369,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>25</v>
@@ -3385,10 +3367,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="10">
         <v>37</v>
@@ -3401,7 +3383,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>24</v>
@@ -3417,7 +3399,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>25</v>
@@ -3433,10 +3415,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D17" s="10">
         <v>47</v>
@@ -3449,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>24</v>
@@ -3465,7 +3447,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>25</v>
@@ -3505,14 +3487,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
@@ -3524,7 +3506,7 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -3537,24 +3519,24 @@
         <v>0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3562,13 +3544,13 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -3579,7 +3561,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -3596,7 +3578,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>10</v>
@@ -3613,10 +3595,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -3630,10 +3612,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -3647,10 +3629,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3660,11 +3642,11 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3674,27 +3656,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>99</v>
       </c>
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>2200000</v>
@@ -3709,7 +3691,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1">
         <v>2500000</v>
@@ -3724,7 +3706,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1">
         <v>2900000</v>
@@ -3739,18 +3721,18 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -3791,41 +3773,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -3833,10 +3815,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="4">
         <v>60</v>
@@ -3852,7 +3834,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="4">
         <v>90</v>
@@ -3865,10 +3847,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="4">
         <v>45</v>
@@ -3881,10 +3863,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4">
         <v>97</v>
@@ -3897,10 +3879,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="4">
         <v>79</v>
@@ -3913,10 +3895,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4">
         <v>80</v>
@@ -3929,10 +3911,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="4">
         <v>60</v>
@@ -3945,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4">
         <v>56</v>
@@ -3961,10 +3943,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4">
         <v>98</v>
@@ -3980,7 +3962,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4">
         <v>78</v>
@@ -4001,7 +3983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D1DB5-01EE-4E17-834A-5681BA4446DB}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -4009,12 +3991,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4029,17 +4011,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="23">
         <v>2</v>
@@ -4067,14 +4049,14 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4098,12 +4080,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" cm="1">
         <f t="array" ref="C25:C26">MMULT(_xlfn.ANCHORARRAY(C18),H12:H13)</f>
@@ -4117,12 +4099,12 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" cm="1">
         <f t="array" ref="C30:C31">MMULT(MINVERSE(C12:D13),H12:H13)</f>
@@ -4152,7 +4134,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/dasar-matematika-bisnis.xlsx
+++ b/data/dasar-matematika-bisnis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bakti\Desktop\Bookdown\Matematika-Bisnis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6332FDD-1689-4012-B551-E3D719FC20AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C233CF80-7BF7-4809-B6E2-E8346C701927}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kasus1" sheetId="3" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -684,6 +684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1930,7 +1933,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="260071" cy="174984"/>
@@ -2443,7 +2446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C4ECD7-278E-4C6F-940A-07828DD24064}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2454,18 +2457,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B2" s="8"/>
@@ -2768,11 +2771,11 @@
       <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -2782,11 +2785,11 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -2796,11 +2799,11 @@
       <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -2810,11 +2813,11 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -2840,7 +2843,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2854,17 +2857,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -3091,55 +3094,55 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="2"/>
     </row>
   </sheetData>
@@ -3160,7 +3163,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3172,14 +3175,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -3472,7 +3475,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3487,14 +3490,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18"/>
@@ -3524,11 +3527,11 @@
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="5" t="s">
         <v>99</v>
       </c>
@@ -3642,11 +3645,11 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3761,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A28A7B8-73EF-4A7C-8671-015895C0BD87}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3770,17 +3773,18 @@
     <col min="1" max="1" width="8.7265625" style="8"/>
     <col min="3" max="3" width="21.36328125" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="8"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -3824,7 +3828,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
@@ -3840,7 +3844,7 @@
         <v>90</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
@@ -3981,10 +3985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03D1DB5-01EE-4E17-834A-5681BA4446DB}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4048,71 +4052,75 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C18" cm="1">
-        <f t="array" ref="C18:D19">MINVERSE(C12:D13)</f>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" cm="1">
+        <f t="array" ref="C19:D20">MINVERSE(C12:D13)</f>
         <v>0.25</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C19">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20">
         <v>0.5</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>111</v>
       </c>
-      <c r="C25" cm="1">
-        <f t="array" ref="C25:C26">MMULT(_xlfn.ANCHORARRAY(C18),H12:H13)</f>
+      <c r="C26" cm="1">
+        <f t="array" ref="C26:C27">MMULT(_xlfn.ANCHORARRAY(C19),H12:H13)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C26">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
         <v>111</v>
       </c>
-      <c r="C30" cm="1">
-        <f t="array" ref="C30:C31">MMULT(MINVERSE(C12:D13),H12:H13)</f>
+      <c r="C31" cm="1">
+        <f t="array" ref="C31:C32">MMULT(MINVERSE(C12:D13),H12:H13)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C32">
         <v>6</v>
       </c>
     </row>
